--- a/data/trans_orig/P79_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P79_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73FD1222-0048-4783-9524-5EE75E13B386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{418D5788-C4EB-43F5-AC64-28071BCA554E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{18C36DE1-352C-4E9B-BF90-5D441CCFC4EF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{705FBD89-63AD-4178-B76B-5E7E18D360D9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -83,13 +83,13 @@
     <t>0,27%</t>
   </si>
   <si>
-    <t>1,33%</t>
+    <t>1,4%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>0,79%</t>
+    <t>0,9%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,13 +107,13 @@
     <t>99,73%</t>
   </si>
   <si>
-    <t>98,67%</t>
+    <t>98,6%</t>
   </si>
   <si>
     <t>99,85%</t>
   </si>
   <si>
-    <t>99,21%</t>
+    <t>99,1%</t>
   </si>
   <si>
     <t>2/10</t>
@@ -122,106 +122,100 @@
     <t>1,16%</t>
   </si>
   <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
   </si>
   <si>
     <t>0,13%</t>
   </si>
   <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
     <t>0,67%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
   </si>
   <si>
     <t>99,33%</t>
   </si>
   <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
     <t>98,69%</t>
   </si>
   <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
+    <t>97,99%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -230,16 +224,19 @@
     <t>2,68%</t>
   </si>
   <si>
-    <t>4,96%</t>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
   </si>
   <si>
     <t>1,57%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
   </si>
   <si>
     <t>2,07%</t>
@@ -248,28 +245,31 @@
     <t>1,29%</t>
   </si>
   <si>
-    <t>3,27%</t>
+    <t>3,42%</t>
   </si>
   <si>
     <t>97,32%</t>
   </si>
   <si>
-    <t>95,04%</t>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
   </si>
   <si>
     <t>98,43%</t>
   </si>
   <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
   </si>
   <si>
     <t>97,93%</t>
   </si>
   <si>
-    <t>96,73%</t>
+    <t>96,58%</t>
   </si>
   <si>
     <t>98,71%</t>
@@ -281,91 +281,91 @@
     <t>3,04%</t>
   </si>
   <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
+    <t>4,49%</t>
   </si>
   <si>
     <t>2,35%</t>
   </si>
   <si>
-    <t>3,31%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
   </si>
   <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>3,52%</t>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
   </si>
   <si>
     <t>96,96%</t>
   </si>
   <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
+    <t>95,51%</t>
   </si>
   <si>
     <t>97,65%</t>
   </si>
   <si>
-    <t>96,69%</t>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
   </si>
   <si>
     <t>97,33%</t>
   </si>
   <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
   </si>
   <si>
     <t>1,44%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
   </si>
   <si>
     <t>1,73%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
   </si>
   <si>
     <t>98,56%</t>
   </si>
   <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
   </si>
   <si>
     <t>98,27%</t>
   </si>
   <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
+    <t>97,88%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -780,7 +780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC72153-00FC-4227-96BD-777D04DEB1F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5232A53E-403C-44CD-86EB-A784AE8E9F6F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1247,10 +1247,10 @@
         <v>50</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1265,13 +1265,13 @@
         <v>1023787</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="H11" s="7">
         <v>1494</v>
@@ -1280,13 +1280,13 @@
         <v>1044125</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M11" s="7">
         <v>2444</v>
@@ -1295,13 +1295,13 @@
         <v>2067912</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1357,7 +1357,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1369,13 +1369,13 @@
         <v>19500</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -1384,13 +1384,13 @@
         <v>13649</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -1399,13 +1399,13 @@
         <v>33149</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1420,13 +1420,13 @@
         <v>708266</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H14" s="7">
         <v>1027</v>
@@ -1527,10 +1527,10 @@
         <v>80</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -1539,10 +1539,10 @@
         <v>27000</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>84</v>
@@ -1557,10 +1557,10 @@
         <v>85</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1575,13 +1575,13 @@
         <v>934894</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="H17" s="7">
         <v>1529</v>
@@ -1596,22 +1596,22 @@
         <v>91</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="M17" s="7">
         <v>2507</v>
       </c>
       <c r="N17" s="7">
-        <v>2056855</v>
+        <v>2056854</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1653,7 +1653,7 @@
         <v>2565</v>
       </c>
       <c r="N18" s="7">
-        <v>2113174</v>
+        <v>2113173</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>21</v>
@@ -1679,13 +1679,13 @@
         <v>69933</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H19" s="7">
         <v>65</v>
@@ -1694,13 +1694,13 @@
         <v>54577</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M19" s="7">
         <v>126</v>
@@ -1709,13 +1709,13 @@
         <v>124510</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1733,10 +1733,10 @@
         <v>76</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H20" s="7">
         <v>5285</v>
@@ -1745,28 +1745,28 @@
         <v>3745019</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M20" s="7">
         <v>8597</v>
       </c>
       <c r="N20" s="7">
-        <v>7057366</v>
+        <v>7057367</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1808,7 +1808,7 @@
         <v>8723</v>
       </c>
       <c r="N21" s="7">
-        <v>7181876</v>
+        <v>7181877</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>21</v>

--- a/data/trans_orig/P79_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P79_R-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{418D5788-C4EB-43F5-AC64-28071BCA554E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEE4CDF8-9D86-4C5E-BBC9-02AEA46AED1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{705FBD89-63AD-4178-B76B-5E7E18D360D9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{855F7A25-6067-4F2B-8377-E1418D62A81A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -116,7 +116,7 @@
     <t>99,1%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>1,16%</t>
@@ -167,7 +167,7 @@
     <t>99,72%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>1,42%</t>
@@ -218,7 +218,7 @@
     <t>97,99%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>2,68%</t>
@@ -780,7 +780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5232A53E-403C-44CD-86EB-A784AE8E9F6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A711F6D-31A8-4B4A-93FE-F78620AE2C72}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P79_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P79_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEE4CDF8-9D86-4C5E-BBC9-02AEA46AED1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AAA0A8A-D2E6-4895-A663-1ED5551516B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{855F7A25-6067-4F2B-8377-E1418D62A81A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4976A807-0FDD-4C4A-AAF4-37A6D6137765}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -83,13 +83,13 @@
     <t>0,27%</t>
   </si>
   <si>
-    <t>1,4%</t>
+    <t>1,33%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>0,9%</t>
+    <t>0,79%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,13 +107,13 @@
     <t>99,73%</t>
   </si>
   <si>
-    <t>98,6%</t>
+    <t>98,67%</t>
   </si>
   <si>
     <t>99,85%</t>
   </si>
   <si>
-    <t>99,1%</t>
+    <t>99,21%</t>
   </si>
   <si>
     <t>2-10.000 hab</t>
@@ -122,49 +122,49 @@
     <t>1,16%</t>
   </si>
   <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
   </si>
   <si>
     <t>0,13%</t>
   </si>
   <si>
-    <t>0,59%</t>
+    <t>0,67%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
   </si>
   <si>
     <t>98,84%</t>
   </si>
   <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
   </si>
   <si>
     <t>99,87%</t>
   </si>
   <si>
-    <t>99,41%</t>
+    <t>99,33%</t>
   </si>
   <si>
     <t>99,37%</t>
   </si>
   <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -173,49 +173,55 @@
     <t>1,42%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
   </si>
   <si>
     <t>1,21%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>2,01%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
   </si>
   <si>
     <t>98,58%</t>
   </si>
   <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
   </si>
   <si>
     <t>98,79%</t>
   </si>
   <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
   </si>
   <si>
     <t>98,69%</t>
   </si>
   <si>
-    <t>97,99%</t>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -224,19 +230,16 @@
     <t>2,68%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
+    <t>4,96%</t>
   </si>
   <si>
     <t>1,57%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
   </si>
   <si>
     <t>2,07%</t>
@@ -245,31 +248,28 @@
     <t>1,29%</t>
   </si>
   <si>
-    <t>3,42%</t>
+    <t>3,27%</t>
   </si>
   <si>
     <t>97,32%</t>
   </si>
   <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
+    <t>95,04%</t>
   </si>
   <si>
     <t>98,43%</t>
   </si>
   <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
   </si>
   <si>
     <t>97,93%</t>
   </si>
   <si>
-    <t>96,58%</t>
+    <t>96,73%</t>
   </si>
   <si>
     <t>98,71%</t>
@@ -281,91 +281,91 @@
     <t>3,04%</t>
   </si>
   <si>
-    <t>4,49%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
   </si>
   <si>
     <t>2,35%</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
+    <t>3,31%</t>
   </si>
   <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
+    <t>3,52%</t>
   </si>
   <si>
     <t>96,96%</t>
   </si>
   <si>
-    <t>95,51%</t>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
   </si>
   <si>
     <t>97,65%</t>
   </si>
   <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
+    <t>96,69%</t>
   </si>
   <si>
     <t>97,33%</t>
   </si>
   <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
   </si>
   <si>
     <t>1,44%</t>
   </si>
   <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
   </si>
   <si>
     <t>1,73%</t>
   </si>
   <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
   </si>
   <si>
     <t>98,56%</t>
   </si>
   <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
   </si>
   <si>
     <t>98,27%</t>
   </si>
   <si>
-    <t>97,88%</t>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -780,7 +780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A711F6D-31A8-4B4A-93FE-F78620AE2C72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B9C81D-3D97-4467-B1D0-6611C6113864}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1247,10 +1247,10 @@
         <v>50</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1265,13 +1265,13 @@
         <v>1023787</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H11" s="7">
         <v>1494</v>
@@ -1280,13 +1280,13 @@
         <v>1044125</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M11" s="7">
         <v>2444</v>
@@ -1295,13 +1295,13 @@
         <v>2067912</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1357,7 +1357,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1369,13 +1369,13 @@
         <v>19500</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -1384,13 +1384,13 @@
         <v>13649</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -1399,13 +1399,13 @@
         <v>33149</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1420,13 +1420,13 @@
         <v>708266</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="H14" s="7">
         <v>1027</v>
@@ -1527,10 +1527,10 @@
         <v>80</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -1539,10 +1539,10 @@
         <v>27000</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>84</v>
@@ -1557,10 +1557,10 @@
         <v>85</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1575,13 +1575,13 @@
         <v>934894</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H17" s="7">
         <v>1529</v>
@@ -1596,22 +1596,22 @@
         <v>91</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="M17" s="7">
         <v>2507</v>
       </c>
       <c r="N17" s="7">
-        <v>2056854</v>
+        <v>2056855</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1653,7 +1653,7 @@
         <v>2565</v>
       </c>
       <c r="N18" s="7">
-        <v>2113173</v>
+        <v>2113174</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>21</v>
@@ -1679,13 +1679,13 @@
         <v>69933</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H19" s="7">
         <v>65</v>
@@ -1694,13 +1694,13 @@
         <v>54577</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M19" s="7">
         <v>126</v>
@@ -1709,13 +1709,13 @@
         <v>124510</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1733,10 +1733,10 @@
         <v>76</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H20" s="7">
         <v>5285</v>
@@ -1745,28 +1745,28 @@
         <v>3745019</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M20" s="7">
         <v>8597</v>
       </c>
       <c r="N20" s="7">
-        <v>7057367</v>
+        <v>7057366</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1808,7 +1808,7 @@
         <v>8723</v>
       </c>
       <c r="N21" s="7">
-        <v>7181877</v>
+        <v>7181876</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>21</v>

--- a/data/trans_orig/P79_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P79_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AAA0A8A-D2E6-4895-A663-1ED5551516B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0727471D-27B8-4BA8-B62A-1ABF49F18B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4976A807-0FDD-4C4A-AAF4-37A6D6137765}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FDB1ADCE-09C3-4FC3-8ABC-F8BF48DB51DA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
   <si>
     <t>Población que sufre violencia física, emocional o sexual en 2023 (Tasa respuesta: 99,77%)</t>
   </si>
@@ -65,307 +65,289 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,98%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
   </si>
   <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
   </si>
   <si>
     <t>98,39%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -780,8 +762,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B9C81D-3D97-4467-B1D0-6611C6113864}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95FAD40-C1A3-4B71-9030-70C2EAA953E7}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -898,10 +880,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>5770</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -913,85 +895,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>357</v>
+        <v>1050</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N4" s="7">
-        <v>357</v>
+        <v>6820</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>118</v>
+        <v>723</v>
       </c>
       <c r="D5" s="7">
-        <v>101982</v>
+        <v>629671</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>242</v>
+        <v>1235</v>
       </c>
       <c r="I5" s="7">
-        <v>130376</v>
+        <v>674320</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M5" s="7">
-        <v>360</v>
+        <v>1958</v>
       </c>
       <c r="N5" s="7">
-        <v>232358</v>
+        <v>1303991</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1000,153 +982,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1238</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>675370</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1968</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1310811</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D7" s="7">
-        <v>6405</v>
+        <v>13720</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="7">
+        <v>16</v>
+      </c>
+      <c r="I7" s="7">
+        <v>11445</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="7">
         <v>29</v>
       </c>
-      <c r="H7" s="7">
-        <v>2</v>
-      </c>
-      <c r="I7" s="7">
-        <v>752</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="7">
-        <v>9</v>
-      </c>
       <c r="N7" s="7">
-        <v>7157</v>
+        <v>25165</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>605</v>
+        <v>950</v>
       </c>
       <c r="D8" s="7">
-        <v>543418</v>
+        <v>1178468</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
-        <v>993</v>
+        <v>1494</v>
       </c>
       <c r="I8" s="7">
-        <v>591803</v>
+        <v>944332</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
-        <v>1598</v>
+        <v>2444</v>
       </c>
       <c r="N8" s="7">
-        <v>1135221</v>
+        <v>2122800</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1155,153 +1137,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>963</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192188</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>995</v>
+        <v>1510</v>
       </c>
       <c r="I9" s="7">
-        <v>592555</v>
+        <v>955777</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>1607</v>
+        <v>2473</v>
       </c>
       <c r="N9" s="7">
-        <v>1142378</v>
+        <v>2147965</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>14710</v>
+        <v>17908</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H10" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I10" s="7">
-        <v>12819</v>
+        <v>12047</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>29</v>
       </c>
       <c r="N10" s="7">
-        <v>27529</v>
+        <v>29956</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>950</v>
+        <v>661</v>
       </c>
       <c r="D11" s="7">
-        <v>1023787</v>
+        <v>685842</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
-        <v>1494</v>
+        <v>1027</v>
       </c>
       <c r="I11" s="7">
-        <v>1044125</v>
+        <v>917738</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
-        <v>2444</v>
+        <v>1688</v>
       </c>
       <c r="N11" s="7">
-        <v>2067912</v>
+        <v>1603578</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1310,153 +1292,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>963</v>
+        <v>675</v>
       </c>
       <c r="D12" s="7">
-        <v>1038497</v>
+        <v>703750</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>1510</v>
+        <v>1042</v>
       </c>
       <c r="I12" s="7">
-        <v>1056944</v>
+        <v>929785</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>2473</v>
+        <v>1717</v>
       </c>
       <c r="N12" s="7">
-        <v>2095441</v>
+        <v>1633534</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D13" s="7">
-        <v>19500</v>
+        <v>28015</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="I13" s="7">
-        <v>13649</v>
+        <v>24606</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="N13" s="7">
-        <v>33149</v>
+        <v>52621</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>661</v>
+        <v>978</v>
       </c>
       <c r="D14" s="7">
-        <v>708266</v>
+        <v>897810</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
-        <v>1027</v>
+        <v>1529</v>
       </c>
       <c r="I14" s="7">
-        <v>856755</v>
+        <v>1069081</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
-        <v>1688</v>
+        <v>2507</v>
       </c>
       <c r="N14" s="7">
-        <v>1565021</v>
+        <v>1966891</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1465,153 +1447,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>675</v>
+        <v>1005</v>
       </c>
       <c r="D15" s="7">
-        <v>727766</v>
+        <v>925825</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>1042</v>
+        <v>1560</v>
       </c>
       <c r="I15" s="7">
-        <v>870404</v>
+        <v>1093687</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>1717</v>
+        <v>2565</v>
       </c>
       <c r="N15" s="7">
-        <v>1598170</v>
+        <v>2019512</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="D16" s="7">
-        <v>29319</v>
+        <v>65414</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="I16" s="7">
-        <v>27000</v>
+        <v>49148</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="N16" s="7">
-        <v>56319</v>
+        <v>114562</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>978</v>
+        <v>3312</v>
       </c>
       <c r="D17" s="7">
-        <v>934894</v>
+        <v>3391790</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
-        <v>1529</v>
+        <v>5285</v>
       </c>
       <c r="I17" s="7">
-        <v>1121960</v>
+        <v>3605471</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
-        <v>2507</v>
+        <v>8597</v>
       </c>
       <c r="N17" s="7">
-        <v>2056855</v>
+        <v>6997261</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1620,217 +1602,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1005</v>
+        <v>3373</v>
       </c>
       <c r="D18" s="7">
-        <v>964213</v>
+        <v>3457204</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>1560</v>
+        <v>5350</v>
       </c>
       <c r="I18" s="7">
-        <v>1148960</v>
+        <v>3654619</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>2565</v>
+        <v>8723</v>
       </c>
       <c r="N18" s="7">
-        <v>2113174</v>
+        <v>7111823</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>61</v>
-      </c>
-      <c r="D19" s="7">
-        <v>69933</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H19" s="7">
-        <v>65</v>
-      </c>
-      <c r="I19" s="7">
-        <v>54577</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="M19" s="7">
-        <v>126</v>
-      </c>
-      <c r="N19" s="7">
-        <v>124510</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3312</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3312347</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5285</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3745019</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="A19" t="s">
         <v>104</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8597</v>
-      </c>
-      <c r="N20" s="7">
-        <v>7057366</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3373</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3382280</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5350</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3799596</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8723</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7181876</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>110</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
